--- a/data_table_document.xlsx
+++ b/data_table_document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Admin\Guilford College\Sophmore Year\Spring Semester of 2023\Advanced Programming\GitHub Folder\ctis310project7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{526D55DD-8FCF-4CCC-996D-6A6BF1D3D841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F6F516-0FDE-4860-8564-C5E8909A24E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{45EFF9B9-DE0E-45E1-81F5-1C8DF40B0FEF}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{45EFF9B9-DE0E-45E1-81F5-1C8DF40B0FEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>add</t>
   </si>
@@ -58,6 +58,87 @@
   </si>
   <si>
     <t>10000 Elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 milliseconds</t>
+  </si>
+  <si>
+    <t>18 milliseconds</t>
+  </si>
+  <si>
+    <t>2 milliseconds</t>
+  </si>
+  <si>
+    <t>21 milliseconds</t>
+  </si>
+  <si>
+    <t>0 milliseconds</t>
+  </si>
+  <si>
+    <t>16 milliseconds</t>
+  </si>
+  <si>
+    <t>3 milliseconds</t>
+  </si>
+  <si>
+    <t>1 milliseconds</t>
+  </si>
+  <si>
+    <t>4,434 milliseconds</t>
+  </si>
+  <si>
+    <t>41 milliseconds</t>
+  </si>
+  <si>
+    <t>15 milliseconds</t>
+  </si>
+  <si>
+    <t>8 milliseconds</t>
+  </si>
+  <si>
+    <t>30 milliseconds</t>
+  </si>
+  <si>
+    <t>11 milliseconds</t>
+  </si>
+  <si>
+    <t>4 milliseconds</t>
+  </si>
+  <si>
+    <t>4,077 milliseconds</t>
+  </si>
+  <si>
+    <t>19 milliseconds</t>
+  </si>
+  <si>
+    <t>10 milliseconds</t>
+  </si>
+  <si>
+    <t>751 milliseconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary: </t>
+  </si>
+  <si>
+    <t>The LinkLIst consistently appeared to be the better implementation when adding the elements to the list</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moreover,  ArrayList took longer to find the next free space as it has to run by each element and since </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the LinkList can track the location of the last element, ArrayList is at a disadvantage when it comes to adding elements </t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furthermore,  calling the sort method,  ArrayList and LinkedList were close, with a small value of difference between them. This also applies to calling the shuffle method, both of the groups had the same time until the program had to ran 10000 elements which LinkedList had finished 1 millisecond earlier than ArrayLIst. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consequently, the results are logical as </t>
   </si>
 </sst>
 </file>
@@ -418,15 +499,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB9F986-BB21-4DA3-A755-527A5F314B9E}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -449,26 +532,56 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -490,33 +603,63 @@
       <c r="A11" t="s">
         <v>0</v>
       </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -527,29 +670,95 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data_table_document.xlsx
+++ b/data_table_document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Admin\Guilford College\Sophmore Year\Spring Semester of 2023\Advanced Programming\GitHub Folder\ctis310project7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F6F516-0FDE-4860-8564-C5E8909A24E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4B1C17-ACAA-47EE-A596-C89CA92035F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{45EFF9B9-DE0E-45E1-81F5-1C8DF40B0FEF}"/>
+    <workbookView xWindow="11328" yWindow="0" windowWidth="11712" windowHeight="12240" xr2:uid="{45EFF9B9-DE0E-45E1-81F5-1C8DF40B0FEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>add</t>
   </si>
@@ -138,7 +138,25 @@
     <t xml:space="preserve">Furthermore,  calling the sort method,  ArrayList and LinkedList were close, with a small value of difference between them. This also applies to calling the shuffle method, both of the groups had the same time until the program had to ran 10000 elements which LinkedList had finished 1 millisecond earlier than ArrayLIst. </t>
   </si>
   <si>
-    <t xml:space="preserve">Consequently, the results are logical as </t>
+    <t>So far, these results are logical as they correlate with the functions of both list types.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the random get calling method, ArrayList outtakes LinkedList as it has the advantage of being able to take its time to loop right through the random number generaton and then get to that index. The LinkList may have tried to loop through all the elements which sacrifices time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lastly, during the sequential get calling class,  it took 0 milliseconds for ArrayList because it goes to the element in the list </t>
+  </si>
+  <si>
+    <t>st and takes the same amount of time</t>
+  </si>
+  <si>
+    <t>to get the element. As for the LinkList, it takes longer as the loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kList, it takes more time since each element the loop gets, the longer it will take to obtain </t>
+  </si>
+  <si>
+    <t>it. Once again, these results are evidence to what we discussed in class about ArrayLists and LinkedLists.</t>
   </si>
 </sst>
 </file>
@@ -499,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB9F986-BB21-4DA3-A755-527A5F314B9E}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,6 +779,32 @@
         <v>37</v>
       </c>
     </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
